--- a/Schedule - BA - Winter 2019-20 FINAL 2019-10-11.xlsx
+++ b/Schedule - BA - Winter 2019-20 FINAL 2019-10-11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
   <si>
     <t>Week 1</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Data Engineering 4</t>
+  </si>
+  <si>
+    <t>hétvége SCRUM IN AGILE</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T47"/>
+  <dimension ref="A2:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,6 +739,11 @@
     <col min="19" max="19" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="15" t="s">
@@ -1093,7 +1101,7 @@
       <c r="B14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="39" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="36" t="s">
@@ -1102,7 +1110,7 @@
       <c r="E14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="38" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="37" t="s">
@@ -1111,7 +1119,7 @@
       <c r="H14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="39" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="36" t="s">
@@ -1120,7 +1128,7 @@
       <c r="K14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="37" t="s">
@@ -1129,7 +1137,7 @@
       <c r="N14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="39" t="s">
         <v>26</v>
       </c>
       <c r="P14" s="36" t="s">
@@ -1138,7 +1146,7 @@
       <c r="Q14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="38" t="s">
         <v>26</v>
       </c>
       <c r="S14" s="37" t="s">
@@ -1517,7 +1525,7 @@
       <c r="B30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="39" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="36" t="s">
@@ -1526,7 +1534,7 @@
       <c r="E30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="38" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="37" t="s">
@@ -1535,7 +1543,7 @@
       <c r="H30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="39" t="s">
         <v>26</v>
       </c>
       <c r="J30" s="36" t="s">
@@ -1544,7 +1552,7 @@
       <c r="K30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="37" t="s">
@@ -1553,7 +1561,7 @@
       <c r="N30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="39" t="s">
         <v>26</v>
       </c>
       <c r="P30" s="36" t="s">
@@ -1562,7 +1570,7 @@
       <c r="Q30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R30" s="8" t="s">
+      <c r="R30" s="38" t="s">
         <v>26</v>
       </c>
       <c r="S30" s="38" t="s">
